--- a/학습자료/단답형/영어_복습_암기표현.xlsx
+++ b/학습자료/단답형/영어_복습_암기표현.xlsx
@@ -623,7 +623,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cannot help ＋동명사</t>
+          <t>cannot help 동명사</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
